--- a/data/demands_2.xlsx
+++ b/data/demands_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\steel-bridge-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23997,6 +23997,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="74.5703125" bestFit="1" customWidth="1"/>
